--- a/biology/Médecine/1190_en_santé_et_médecine/1190_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1190_en_santé_et_médecine/1190_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1190_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1190_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1190 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1190_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1190_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Abu Yusuf, calife almohade, fait construire le bimaristan de Marrakech, au Maroc[1],[2].
-Création de la léproserie de Pontoise, dans la vallée de Montmorency[3].
-À Cahors, en Quercy, les seigneurs de Vayrols donnent aux Templiers plusieurs maisons où ils installent une commanderie, une chapelle et un hôpital[4].
-Entre 1182 et 1190 : fondation par Rotrou IV, comte du Perche, de l'hôtel-Dieu de Nogent[5].
-Entre 1190 et 1195 : fondation de la léproserie de Lavoûte-Chilhac, en Auvergne[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Abu Yusuf, calife almohade, fait construire le bimaristan de Marrakech, au Maroc,.
+Création de la léproserie de Pontoise, dans la vallée de Montmorency.
+À Cahors, en Quercy, les seigneurs de Vayrols donnent aux Templiers plusieurs maisons où ils installent une commanderie, une chapelle et un hôpital.
+Entre 1182 et 1190 : fondation par Rotrou IV, comte du Perche, de l'hôtel-Dieu de Nogent.
+Entre 1190 et 1195 : fondation de la léproserie de Lavoûte-Chilhac, en Auvergne.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1190_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1190_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1182-1190 : Fl. Pierre Bertrand, professeur de médecine à Montpellier, « si l'on en croit une inscription qui se trouve […] dans le vestibule de la faculté[7] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1182-1190 : Fl. Pierre Bertrand, professeur de médecine à Montpellier, « si l'on en croit une inscription qui se trouve […] dans le vestibule de la faculté ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1190_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1190_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Vers 1190 :
-Chen Ziming (mort en 1270), médecin chinois, auteur, en 1237, du Fu Ren Da Quan Liang Fang (« Recueil complet des prescriptions utiles aux femmes[8] »).
-Vincent de Beauvais (mort vers 1260-1264), chargé par Louis IX, sans être médecin, de rédiger un règlement pour l'hôtel-Dieu de Beauvais, et auteur du Speculum majus, encyclopédie qui « réserve une place importante à la médecine[7] ».
-Entre 1190 et 1197 : Ibn al-Baitar (mort en 1248), médecin et botaniste arabe, auteur du Kitab al-Gami (« Le Livre des simples ») qui rassemble les connaissances pharmacologiques de son temps[9].
+Chen Ziming (mort en 1270), médecin chinois, auteur, en 1237, du Fu Ren Da Quan Liang Fang (« Recueil complet des prescriptions utiles aux femmes »).
+Vincent de Beauvais (mort vers 1260-1264), chargé par Louis IX, sans être médecin, de rédiger un règlement pour l'hôtel-Dieu de Beauvais, et auteur du Speculum majus, encyclopédie qui « réserve une place importante à la médecine ».
+Entre 1190 et 1197 : Ibn al-Baitar (mort en 1248), médecin et botaniste arabe, auteur du Kitab al-Gami (« Le Livre des simples ») qui rassemble les connaissances pharmacologiques de son temps.
 </t>
         </is>
       </c>
